--- a/EV3MN.xlsx
+++ b/EV3MN.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da3a63255d05b25e/Stuff/Documentos/Tecmi/Base de Datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRM-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90755B28-638F-4864-9B5E-1BE6179823B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140608F4-579E-4A73-A50C-EA220D61940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{619C7F78-34B0-410F-B37E-9C2C55FF2E8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{619C7F78-34B0-410F-B37E-9C2C55FF2E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>X</t>
   </si>
@@ -136,7 +138,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-MX"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -323,7 +325,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049180944"/>
@@ -385,7 +387,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049180464"/>
@@ -433,7 +435,715 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ecuacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>187.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24D1-4DAF-8E05-6DAC1945E3BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="933087344"/>
+        <c:axId val="933095504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="933087344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933095504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="933095504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933087344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ecuacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>468.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1230.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2553.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C62-4BCC-A888-F8655CFA6665}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="933099344"/>
+        <c:axId val="933087824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="933099344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933087824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="933087824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933099344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -484,7 +1194,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1005,15 +2827,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>51435</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
+      <xdr:colOff>661035</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1021,6 +2843,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DBBE2EF-2000-F155-74D7-2844A7EB16AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4838D8C1-8F06-0C5E-B0D2-6E54475F4400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F57349E-AD73-F40D-07D0-FF056D0ECE63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,13 +3244,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848848F3-AD90-454F-B13B-9E531B66755C}">
   <dimension ref="B3:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1363,7 +3267,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -1372,7 +3276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1381,7 +3285,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1390,7 +3294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1399,7 +3303,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1408,7 +3312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1417,7 +3321,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1426,7 +3330,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1435,13 +3339,241 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56C6CB7-282B-4E60-8709-A2106DA3E39E}">
+  <dimension ref="B3:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>4*(B4)+3.25*(B4)^2</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>4*(B5)+3.25*(B5)^2</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C5:C13" si="0">4*(B6)+3.25*(B6)^2</f>
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>101.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>187.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>299.25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C0FE31-19C4-4800-830B-5037CB8C43FC}">
+  <dimension ref="B4:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>2*(B5)^2+3.25*(B5)^3+2.5*(B5)</f>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C14" si="0">2*(B6)^2+3.25*(B6)^3+2.5*(B6)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>113.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>468.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>789</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1230.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2553.75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3475</v>
       </c>
     </row>
   </sheetData>
